--- a/Ecopulper/my_graphs/Energy Change by Activities.xlsx
+++ b/Ecopulper/my_graphs/Energy Change by Activities.xlsx
@@ -468,7 +468,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>5.269821898284135</v>
+        <v>0.05320633942028508</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.00914588260269511</v>
+        <v>9.234067937313739E-05</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -500,7 +500,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>5.85592102586574E-10</v>
+        <v>5.912381695338809E-12</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6.076987624226149E-08</v>
+        <v>6.135572050425253E-10</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>4.949555204802891E-06</v>
+        <v>4.997309588361531E-08</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.510658336201232E-07</v>
+        <v>1.525236825727916E-09</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.1124687175852159</v>
+        <v>0.001135531502768572</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.5912870991815</v>
+        <v>0.01606630421883892</v>
       </c>
       <c r="E5">
-        <v>0.3669350121090247</v>
+        <v>0.003704730299432413</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.8014402388071176</v>
+        <v>0.008091677922493545</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.001235471607706984</v>
+        <v>1.247384127367468E-05</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -596,7 +596,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.00350066066312138</v>
+        <v>3.534414281602949E-05</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6.0754674464647E-06</v>
+        <v>6.134047225714312E-08</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -628,7 +628,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.008993080162326805</v>
+        <v>9.079793380806223E-05</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.000274478625442498</v>
+        <v>2.771251729427604E-06</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.005434555521951268</v>
+        <v>5.486955950573247E-05</v>
       </c>
       <c r="C8">
-        <v>0.02598585928717512</v>
+        <v>0.0002623641685204348</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.968031291304214</v>
+        <v>0.08044859701476526</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.001158472642998731</v>
+        <v>-1.169642729337284E-05</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.115020193286</v>
+        <v>0.001161292272627179</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -724,16 +724,16 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>0.006867178155061993</v>
+        <v>6.933392035080033E-05</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09414396357715304</v>
+        <v>0.0009505170710326638</v>
       </c>
       <c r="E10">
-        <v>0.02170866551614381</v>
+        <v>0.0002191798221247154</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -742,13 +742,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.05837000347310095</v>
+        <v>0.0005893281168027897</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.309313126668826E-05</v>
+        <v>7.379790094574901E-07</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -756,7 +756,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>0.0001490399544650245</v>
+        <v>1.504770068549988E-06</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.2611421255569439</v>
+        <v>0.002636600780533627</v>
       </c>
       <c r="I11">
         <v>0</v>
